--- a/BayComplianceMatrix.xlsx
+++ b/BayComplianceMatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arime\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Operations_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55237FFF-2C48-4F46-9EB7-AEFDBEF53825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E8BEB5-200F-4A0D-AD72-D0DD45BEB245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A860748-5068-45AF-8ADC-8406EAD3509E}"/>
+    <workbookView xWindow="10362" yWindow="3132" windowWidth="17280" windowHeight="8994" xr2:uid="{0A860748-5068-45AF-8ADC-8406EAD3509E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -378,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AD5E20-AADF-4C58-BC22-12E389DFE941}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -402,8 +402,17 @@
       <c r="E1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -419,8 +428,17 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -436,8 +454,17 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -451,6 +478,185 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>

--- a/BayComplianceMatrix.xlsx
+++ b/BayComplianceMatrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Operations_assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocs\AcademicsTUDelft\Semester 1\AE4441-16\Project\CPlex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E8BEB5-200F-4A0D-AD72-D0DD45BEB245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4389144-5AFA-4C10-9C43-EC38B30B7339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10362" yWindow="3132" windowWidth="17280" windowHeight="8994" xr2:uid="{0A860748-5068-45AF-8ADC-8406EAD3509E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A860748-5068-45AF-8ADC-8406EAD3509E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -378,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AD5E20-AADF-4C58-BC22-12E389DFE941}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -412,7 +412,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -438,7 +438,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -464,7 +464,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -490,7 +490,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -507,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -524,9 +524,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -541,9 +541,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -558,9 +558,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -575,9 +575,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -592,15 +592,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -609,15 +609,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -626,39 +626,249 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
